--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42993,6 +42993,41 @@
         <v>390800</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>400900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43028,6 +43028,41 @@
         <v>400900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>290700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43063,6 +43063,41 @@
         <v>290700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>923800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43098,6 +43098,41 @@
         <v>923800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>503900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43133,6 +43133,41 @@
         <v>503900</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>387200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43168,6 +43168,41 @@
         <v>387200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>392200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43203,6 +43203,41 @@
         <v>392200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>300500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43238,6 +43238,41 @@
         <v>300500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>257900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43273,6 +43273,41 @@
         <v>257900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>404600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43308,6 +43308,41 @@
         <v>404600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>2438900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43343,6 +43343,41 @@
         <v>2438900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1124600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43378,6 +43378,41 @@
         <v>1124600</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>3477200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43413,6 +43413,76 @@
         <v>3477200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>712300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1811200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43483,6 +43483,76 @@
         <v>1811200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1949100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1076200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43553,6 +43553,41 @@
         <v>1076200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>849500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43588,6 +43588,41 @@
         <v>849500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>244000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43623,6 +43623,41 @@
         <v>244000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>624500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43658,6 +43658,41 @@
         <v>624500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1774100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43693,6 +43693,76 @@
         <v>1774100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2491300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1411600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43763,6 +43763,41 @@
         <v>1411600</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1471100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43798,6 +43798,41 @@
         <v>1471100</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>3904500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2680"/>
+  <dimension ref="A1:I2681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94198,6 +94198,41 @@
         <v>3904500</v>
       </c>
     </row>
+    <row r="2681">
+      <c r="A2681" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2681" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2681" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D2681" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E2681" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F2681" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="G2681" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="H2681" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="I2681" t="n">
+        <v>2798000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2681"/>
+  <dimension ref="A1:I2682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94233,6 +94233,41 @@
         <v>2798000</v>
       </c>
     </row>
+    <row r="2682">
+      <c r="A2682" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2682" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2682" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D2682" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E2682" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="F2682" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="G2682" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H2682" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="I2682" t="n">
+        <v>4960900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2682"/>
+  <dimension ref="A1:I2683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94268,6 +94268,41 @@
         <v>4960900</v>
       </c>
     </row>
+    <row r="2683">
+      <c r="A2683" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2683" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2683" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D2683" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E2683" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="F2683" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="G2683" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="H2683" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I2683" t="n">
+        <v>2862100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2683"/>
+  <dimension ref="A1:I2684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94303,6 +94303,41 @@
         <v>2862100</v>
       </c>
     </row>
+    <row r="2684">
+      <c r="A2684" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2684" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2684" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D2684" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E2684" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="F2684" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="G2684" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="H2684" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I2684" t="n">
+        <v>4500100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2684"/>
+  <dimension ref="A1:I2685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94338,6 +94338,41 @@
         <v>4500100</v>
       </c>
     </row>
+    <row r="2685">
+      <c r="A2685" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2685" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2685" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D2685" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E2685" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F2685" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G2685" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="H2685" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="I2685" t="n">
+        <v>2726400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2685"/>
+  <dimension ref="A1:I2686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94373,6 +94373,41 @@
         <v>2726400</v>
       </c>
     </row>
+    <row r="2686">
+      <c r="A2686" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2686" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2686" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D2686" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E2686" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="F2686" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G2686" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H2686" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I2686" t="n">
+        <v>2082500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2686"/>
+  <dimension ref="A1:I2687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94408,6 +94408,41 @@
         <v>2082500</v>
       </c>
     </row>
+    <row r="2687">
+      <c r="A2687" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2687" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2687" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D2687" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E2687" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="F2687" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G2687" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="H2687" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="I2687" t="n">
+        <v>1607800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2687"/>
+  <dimension ref="A1:I2688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94443,6 +94443,41 @@
         <v>1607800</v>
       </c>
     </row>
+    <row r="2688">
+      <c r="A2688" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2688" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2688" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D2688" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E2688" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F2688" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="G2688" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="H2688" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2688" t="n">
+        <v>2969400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2688"/>
+  <dimension ref="A1:I2689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94478,6 +94478,41 @@
         <v>2969400</v>
       </c>
     </row>
+    <row r="2689">
+      <c r="A2689" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2689" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2689" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D2689" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E2689" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F2689" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="G2689" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="H2689" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="I2689" t="n">
+        <v>1094400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2689"/>
+  <dimension ref="A1:I2690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94513,6 +94513,41 @@
         <v>1094400</v>
       </c>
     </row>
+    <row r="2690">
+      <c r="A2690" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2690" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2690" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D2690" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E2690" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F2690" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G2690" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="H2690" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I2690" t="n">
+        <v>4082900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2690"/>
+  <dimension ref="A1:I2691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94548,6 +94548,41 @@
         <v>4082900</v>
       </c>
     </row>
+    <row r="2691">
+      <c r="A2691" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2691" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2691" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D2691" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E2691" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F2691" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="G2691" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H2691" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I2691" t="n">
+        <v>801800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2691"/>
+  <dimension ref="A1:I2692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94583,6 +94583,41 @@
         <v>801800</v>
       </c>
     </row>
+    <row r="2692">
+      <c r="A2692" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2692" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2692" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D2692" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E2692" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F2692" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="G2692" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="H2692" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="I2692" t="n">
+        <v>1937800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2692"/>
+  <dimension ref="A1:I2693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94618,6 +94618,41 @@
         <v>1937800</v>
       </c>
     </row>
+    <row r="2693">
+      <c r="A2693" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2693" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D2693" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E2693" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F2693" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="G2693" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H2693" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="I2693" t="n">
+        <v>729400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2693"/>
+  <dimension ref="A1:I2694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94653,6 +94653,41 @@
         <v>729400</v>
       </c>
     </row>
+    <row r="2694">
+      <c r="A2694" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2694" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D2694" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E2694" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F2694" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="G2694" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="H2694" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I2694" t="n">
+        <v>951200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/3069.xlsx
+++ b/data/3069.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2694"/>
+  <dimension ref="A1:I2695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94688,6 +94688,41 @@
         <v>951200</v>
       </c>
     </row>
+    <row r="2695">
+      <c r="A2695" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2695" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="D2695" t="inlineStr">
+        <is>
+          <t>MFCB</t>
+        </is>
+      </c>
+      <c r="E2695" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F2695" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="G2695" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="H2695" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="I2695" t="n">
+        <v>1075700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
